--- a/dist/document/dest/2020/10/doctors/56.xlsx
+++ b/dist/document/dest/2020/10/doctors/56.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>3100</v>
       </c>
-      <c r="C2" s="1">
-        <v>20801000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>4206</v>
       </c>
-      <c r="C3" s="1">
-        <v>34699500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>3190</v>
       </c>
-      <c r="C4" s="1">
-        <v>19299500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>448</v>
       </c>
-      <c r="C5" s="1">
-        <v>2060800</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>7622</v>
       </c>
-      <c r="C6" s="1">
-        <v>49466780</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>705</v>
       </c>
-      <c r="C7" s="1">
-        <v>5816250</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>2809</v>
       </c>
-      <c r="C8" s="1">
-        <v>21629300</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>60</v>
       </c>
-      <c r="C9" s="1">
-        <v>2838000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>3488</v>
       </c>
-      <c r="C10" s="1">
-        <v>16044800</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>120</v>
       </c>
-      <c r="C11" s="1">
-        <v>792000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>9476</v>
       </c>
-      <c r="C12" s="1">
-        <v>52307520</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>30</v>
       </c>
-      <c r="C13" s="1">
-        <v>65550</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
-        <v>369600</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>90</v>
       </c>
-      <c r="C15" s="1">
-        <v>324900</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>210</v>
       </c>
-      <c r="C16" s="1">
-        <v>1381800</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>1345</v>
       </c>
-      <c r="C17" s="1">
-        <v>60525000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>10964</v>
       </c>
-      <c r="C18" s="1">
-        <v>38374000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>168</v>
       </c>
-      <c r="C19" s="1">
-        <v>45360000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>4330</v>
       </c>
-      <c r="C20" s="1">
-        <v>26196500</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>1140</v>
       </c>
-      <c r="C21" s="1">
-        <v>31350000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>180</v>
       </c>
-      <c r="C22" s="1">
-        <v>330300</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>540</v>
       </c>
-      <c r="C23" s="1">
-        <v>1863000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>1590</v>
       </c>
-      <c r="C24" s="1">
-        <v>62964000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>3705</v>
       </c>
-      <c r="C25" s="1">
-        <v>138567000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>9444</v>
       </c>
-      <c r="C26" s="1">
-        <v>116350080</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>5753</v>
       </c>
-      <c r="C27" s="1">
-        <v>83533560</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>3630</v>
       </c>
-      <c r="C28" s="1">
-        <v>12523500</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>510</v>
       </c>
-      <c r="C29" s="1">
-        <v>1818150</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>14</v>
       </c>
-      <c r="C30" s="1">
-        <v>169400</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>4716</v>
       </c>
-      <c r="C31" s="1">
-        <v>36313200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>120</v>
       </c>
-      <c r="C32" s="1">
-        <v>5148000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>300</v>
       </c>
-      <c r="C33" s="1">
-        <v>1725000</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>764</v>
       </c>
-      <c r="C34" s="1">
-        <v>11765600</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>4026</v>
       </c>
-      <c r="C35" s="1">
-        <v>28785900</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>5318</v>
       </c>
-      <c r="C36" s="1">
-        <v>67272700</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>5610</v>
       </c>
-      <c r="C37" s="1">
-        <v>30967200</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>364</v>
       </c>
-      <c r="C38" s="1">
-        <v>91728000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>1320</v>
       </c>
-      <c r="C39" s="1">
-        <v>13068000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>1260</v>
       </c>
-      <c r="C40" s="1">
-        <v>7245000</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>56</v>
       </c>
-      <c r="C41" s="1">
-        <v>120400</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>11302</v>
       </c>
-      <c r="C42" s="1">
-        <v>158906120</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>190</v>
       </c>
-      <c r="C43" s="1">
-        <v>1254000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>1770</v>
       </c>
-      <c r="C44" s="1">
-        <v>38940000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>7835</v>
       </c>
-      <c r="C45" s="1">
-        <v>31535875</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>28</v>
       </c>
-      <c r="C46" s="1">
-        <v>245560</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>1920</v>
       </c>
-      <c r="C47" s="1">
-        <v>7612800</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>1044</v>
       </c>
-      <c r="C48" s="1">
-        <v>9072360</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>120</v>
       </c>
-      <c r="C49" s="1">
-        <v>1056000</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>146</v>
       </c>
-      <c r="C50" s="1">
-        <v>1284800</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>155</v>
       </c>
-      <c r="C51" s="1">
-        <v>2216500</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>180</v>
       </c>
-      <c r="C52" s="1">
-        <v>600300</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>2452</v>
       </c>
-      <c r="C53" s="1">
-        <v>94402000</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>765</v>
       </c>
-      <c r="C54" s="1">
-        <v>8330850</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>1650</v>
       </c>
-      <c r="C55" s="1">
-        <v>58080000</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>420</v>
       </c>
-      <c r="C56" s="1">
-        <v>1738800</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>3516</v>
       </c>
-      <c r="C57" s="1">
-        <v>14151900</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>1185</v>
       </c>
-      <c r="C58" s="1">
-        <v>19552500</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>4185</v>
       </c>
-      <c r="C59" s="1">
-        <v>124294500</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>5633</v>
       </c>
-      <c r="C60" s="1">
-        <v>175186300</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>120</v>
       </c>
-      <c r="C61" s="1">
-        <v>289800</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>56</v>
       </c>
-      <c r="C62" s="1">
-        <v>254240</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>630</v>
       </c>
-      <c r="C63" s="1">
-        <v>3042900</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>5944</v>
       </c>
-      <c r="C64" s="1">
-        <v>69307040</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1098,7 +909,7 @@
         <v>153995</v>
       </c>
       <c r="C65" s="1">
-        <v>1963315935</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/56.xlsx
+++ b/dist/document/dest/2020/10/doctors/56.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,519 +402,3205 @@
         <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B2" s="1">
-        <v>3100</v>
+        <v>1410</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9461100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alcomet (Metadoxine 500mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B3" s="1">
-        <v>4206</v>
+        <v>180</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1207800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Althax (Thymomodulin 120mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B4" s="1">
-        <v>3190</v>
+        <v>120</v>
+      </c>
+      <c r="C4" s="1">
+        <v>805200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amribazin (Ribavirin 500mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B5" s="1">
-        <v>448</v>
+        <v>180</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1207800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Amursolic (Ursodeoxycholic 150mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B6" s="1">
-        <v>7622</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>402600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B7" s="1">
-        <v>705</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>402600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>2809</v>
+        <v>180</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1485000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Barcavir (Entecavir 0.5mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1485000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>3488</v>
+        <v>240</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1980000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bephardin (Lamivudin 100mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>120</v>
+        <v>1004</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8283000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Betnapin (Thymomodulin 80mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>9476</v>
+        <v>120</v>
+      </c>
+      <c r="C12" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>540</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4455000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="C15" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>210</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>363000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Edar-EM (Tenofovir, Emtricitabine)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>1345</v>
+        <v>120</v>
+      </c>
+      <c r="C17" s="1">
+        <v>726000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Enat (Vitamin E 400)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>10964</v>
+        <v>2306</v>
+      </c>
+      <c r="C18" s="1">
+        <v>13951300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Epclusa (Velpatasvir, sofosbuvir)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>168</v>
+        <v>360</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2178000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Esserose (Phospholipids 450mg)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>4330</v>
+        <v>180</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1089000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Fudteno (Tenofovir)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>1140</v>
+        <v>150</v>
+      </c>
+      <c r="C21" s="1">
+        <v>907500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Glucophage 500mg (Metformin)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>180</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>363000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>540</v>
+        <v>90</v>
+      </c>
+      <c r="C23" s="1">
+        <v>544500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+        <v>Amribazin (Ribavirin 500mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>1590</v>
+        <v>112</v>
+      </c>
+      <c r="C24" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>3705</v>
+        <v>150</v>
+      </c>
+      <c r="C25" s="1">
+        <v>973500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Homan (Ursodeoxycholic 300mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>9444</v>
+        <v>300</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1947000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>5753</v>
+        <v>120</v>
+      </c>
+      <c r="C27" s="1">
+        <v>778800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>3630</v>
+        <v>4976</v>
+      </c>
+      <c r="C28" s="1">
+        <v>32294240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>510</v>
+        <v>360</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2336400</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>K1 (Phytomenadione 10mg/ml)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>14</v>
+        <v>120</v>
+      </c>
+      <c r="C30" s="1">
+        <v>778800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>4716</v>
+        <v>300</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1947000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Livact Granules (L-isoleucin, L-leucin, L-valin)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B32" s="1">
         <v>120</v>
       </c>
+      <c r="C32" s="1">
+        <v>778800</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>300</v>
+        <v>330</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2141700</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>764</v>
+        <v>500</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3245000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>4026</v>
+        <v>210</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1732500</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>5318</v>
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mezondin (Thymomodulin 80mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>5610</v>
+        <v>90</v>
+      </c>
+      <c r="C37" s="1">
+        <v>742500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Myvelpa (Sofosbuver, velpatasvir)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>364</v>
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Novator (Deferiprone 500mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B39" s="1">
-        <v>1320</v>
+        <v>90</v>
+      </c>
+      <c r="C39" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Oftofacin (Atorvastatin 20mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B40" s="1">
-        <v>1260</v>
+        <v>300</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2310000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B41" s="1">
-        <v>56</v>
+        <v>135</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1039500</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>PMS-Ursodiol C 250mg</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B42" s="1">
-        <v>11302</v>
+        <v>1177</v>
+      </c>
+      <c r="C42" s="1">
+        <v>9062900</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B43" s="1">
-        <v>190</v>
+        <v>405</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3118500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B44" s="1">
-        <v>1770</v>
+        <v>180</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1386000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B45" s="1">
-        <v>7835</v>
+        <v>15</v>
+      </c>
+      <c r="C45" s="1">
+        <v>115500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B46" s="1">
-        <v>28</v>
+        <v>300</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2310000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B47" s="1">
-        <v>1920</v>
+        <v>150</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1155000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B48" s="1">
-        <v>1044</v>
+        <v>120</v>
+      </c>
+      <c r="C48" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Silytrol (Lamivudine 100mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B49" s="1">
         <v>120</v>
       </c>
+      <c r="C49" s="1">
+        <v>552000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>146</v>
+        <v>60</v>
+      </c>
+      <c r="C50" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>155</v>
+        <v>180</v>
+      </c>
+      <c r="C51" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Spiromide (Spironolactone, Furosemide)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>180</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Stemvir (Tenofovir 300mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>2452</v>
+        <v>60</v>
+      </c>
+      <c r="C53" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>765</v>
+        <v>968</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4452800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+        <v>Bephardin (Lamivudin 100mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>1650</v>
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>420</v>
+        <v>240</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1324800</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>3516</v>
+        <v>652</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3599040</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Tehep - B (Tenofovir 300mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>1185</v>
+        <v>180</v>
+      </c>
+      <c r="C58" s="1">
+        <v>993600</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Tenifo (Tenofovir 300mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>4185</v>
+        <v>540</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2980800</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>5633</v>
+        <v>310</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1711200</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>120</v>
+        <v>540</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2980800</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>56</v>
+        <v>440</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2428800</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>630</v>
+        <v>5095</v>
+      </c>
+      <c r="C63" s="1">
+        <v>28124400</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>5944</v>
+        <v>420</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2318400</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
+        <v>Chondrasil (Allopurinol 300mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1">
+        <v>127650</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1">
+        <v>108300</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1">
+        <v>54150</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Diamicron MR 60mg (Gliclazide)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>197400</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Diamicron MR 60mg (Gliclazide)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>197400</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Edar-EM (Tenofovir, Emtricitabine)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Edar-EM (Tenofovir, Emtricitabine)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>90</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Edar-EM (Tenofovir, Emtricitabine)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Edar-EM (Tenofovir, Emtricitabine)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Edar-EM (Tenofovir, Emtricitabine)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>500</v>
+      </c>
+      <c r="C74" s="1">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>300</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>30</v>
+      </c>
+      <c r="C76" s="1">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>960</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3360000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>510</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1785000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>390</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1365000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>180</v>
+      </c>
+      <c r="C80" s="1">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3929</v>
+      </c>
+      <c r="C81" s="1">
+        <v>13751500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>360</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Enat (Vitamin E 400)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>210</v>
+      </c>
+      <c r="C83" s="1">
+        <v>735000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Epclusa (Velpatasvir, sofosbuvir)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>56</v>
+      </c>
+      <c r="C84" s="1">
+        <v>15120000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Epclusa (Velpatasvir, sofosbuvir)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>28</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7560000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Epclusa (Velpatasvir, sofosbuvir)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>112</v>
+      </c>
+      <c r="C86" s="1">
+        <v>30240000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>147</v>
+      </c>
+      <c r="C87" s="1">
+        <v>889350</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>660</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3993000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>210</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1270500</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>90</v>
+      </c>
+      <c r="C90" s="1">
+        <v>544500</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>300</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1815000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1880</v>
+      </c>
+      <c r="C92" s="1">
+        <v>11374000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>420</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2541000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Fudteno (Tenofovir)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>60</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Fudteno (Tenofovir)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>90</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Fudteno (Tenofovir)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>270</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7425000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Fudteno (Tenofovir)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>120</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Fudteno (Tenofovir)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>30</v>
+      </c>
+      <c r="C98" s="1">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Fudteno (Tenofovir)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>795</v>
+      </c>
+      <c r="C99" s="1">
+        <v>21862500</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>180</v>
+      </c>
+      <c r="C100" s="1">
+        <v>330300</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>90</v>
+      </c>
+      <c r="C102" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45</v>
+      </c>
+      <c r="C103" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>270</v>
+      </c>
+      <c r="C105" s="1">
+        <v>931500</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>240</v>
+      </c>
+      <c r="C106" s="1">
+        <v>8976000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>30</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1122000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>540</v>
+      </c>
+      <c r="C108" s="1">
+        <v>20196000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>240</v>
+      </c>
+      <c r="C109" s="1">
+        <v>8976000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>270</v>
+      </c>
+      <c r="C110" s="1">
+        <v>10098000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>120</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4488000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>30</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1122000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>90</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3366000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2233</v>
+      </c>
+      <c r="C114" s="1">
+        <v>83514200</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>390</v>
+      </c>
+      <c r="C115" s="1">
+        <v>14586000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>300</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3696000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>90</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1108800</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>960</v>
+      </c>
+      <c r="C118" s="1">
+        <v>11827200</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>150</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1848000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>180</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2217600</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>224</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2759680</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>3849</v>
+      </c>
+      <c r="C122" s="1">
+        <v>47419680</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>480</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5913600</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>150</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2178000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>210</v>
+      </c>
+      <c r="C125" s="1">
+        <v>3049200</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>120</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1742400</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>30</v>
+      </c>
+      <c r="C127" s="1">
+        <v>435600</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2194</v>
+      </c>
+      <c r="C128" s="1">
+        <v>31856880</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>60</v>
+      </c>
+      <c r="C129" s="1">
+        <v>871200</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>60</v>
+      </c>
+      <c r="C130" s="1">
+        <v>871200</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>60</v>
+      </c>
+      <c r="C131" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>120</v>
+      </c>
+      <c r="C132" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>180</v>
+      </c>
+      <c r="C133" s="1">
+        <v>621000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>300</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1035000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1740</v>
+      </c>
+      <c r="C135" s="1">
+        <v>6003000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>180</v>
+      </c>
+      <c r="C136" s="1">
+        <v>621000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>116</v>
+      </c>
+      <c r="C137" s="1">
+        <v>413540</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>120</v>
+      </c>
+      <c r="C138" s="1">
+        <v>427800</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>60</v>
+      </c>
+      <c r="C139" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>210</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1617000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>90</v>
+      </c>
+      <c r="C141" s="1">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>630</v>
+      </c>
+      <c r="C142" s="1">
+        <v>4851000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>300</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>510</v>
+      </c>
+      <c r="C144" s="1">
+        <v>3927000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>210</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1617000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2636</v>
+      </c>
+      <c r="C146" s="1">
+        <v>20297200</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>60</v>
+      </c>
+      <c r="C147" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>240</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1848000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Livact Granules (L-isoleucin, L-leucin, L-valin)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>30</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1287000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>630</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3622500</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>15</v>
+      </c>
+      <c r="C151" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>30</v>
+      </c>
+      <c r="C152" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>90</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1386000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>30</v>
+      </c>
+      <c r="C154" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>216</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3326400</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2431</v>
+      </c>
+      <c r="C156" s="1">
+        <v>17381650</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>180</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1287000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>270</v>
+      </c>
+      <c r="C158" s="1">
+        <v>3415500</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>120</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>180</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2277000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>90</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>60</v>
+      </c>
+      <c r="C162" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>300</v>
+      </c>
+      <c r="C163" s="1">
+        <v>3795000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2714</v>
+      </c>
+      <c r="C164" s="1">
+        <v>34332100</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>180</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2277000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>120</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>210</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1159200</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>60</v>
+      </c>
+      <c r="C168" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>240</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1324800</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>180</v>
+      </c>
+      <c r="C170" s="1">
+        <v>993600</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>60</v>
+      </c>
+      <c r="C171" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>210</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1159200</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2114</v>
+      </c>
+      <c r="C173" s="1">
+        <v>11669280</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>240</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1324800</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>112</v>
+      </c>
+      <c r="C175" s="1">
+        <v>618240</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>210</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1159200</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Myvelpa (Sofosbuver, velpatasvir)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>28</v>
+      </c>
+      <c r="C177" s="1">
+        <v>7056000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Myvelpa (Sofosbuver, velpatasvir)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>140</v>
+      </c>
+      <c r="C178" s="1">
+        <v>35280000</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Myvelpa (Sofosbuver, velpatasvir)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>56</v>
+      </c>
+      <c r="C179" s="1">
+        <v>14112000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>30</v>
+      </c>
+      <c r="C180" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>240</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2376000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B182" s="1">
+        <v>742</v>
+      </c>
+      <c r="C182" s="1">
+        <v>10432520</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B183" s="1">
+        <v>150</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2109000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B184" s="1">
+        <v>570</v>
+      </c>
+      <c r="C184" s="1">
+        <v>8014200</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B185" s="1">
+        <v>90</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1265400</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B186" s="1">
+        <v>750</v>
+      </c>
+      <c r="C186" s="1">
+        <v>10545000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B187" s="1">
+        <v>570</v>
+      </c>
+      <c r="C187" s="1">
+        <v>8014200</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B188" s="1">
+        <v>4961</v>
+      </c>
+      <c r="C188" s="1">
+        <v>69751660</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B189" s="1">
+        <v>480</v>
+      </c>
+      <c r="C189" s="1">
+        <v>6748800</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B190" s="1">
+        <v>120</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1687200</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B191" s="1">
+        <v>300</v>
+      </c>
+      <c r="C191" s="1">
+        <v>4218000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>105</v>
+      </c>
+      <c r="C192" s="1">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>176</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1161600</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Pantonix (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>90</v>
+      </c>
+      <c r="C194" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>270</v>
+      </c>
+      <c r="C195" s="1">
+        <v>5940000</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>165</v>
+      </c>
+      <c r="C196" s="1">
+        <v>3630000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>975</v>
+      </c>
+      <c r="C197" s="1">
+        <v>21450000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>90</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1980000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>165</v>
+      </c>
+      <c r="C199" s="1">
+        <v>3630000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>120</v>
+      </c>
+      <c r="C200" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>360</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1449000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>240</v>
+      </c>
+      <c r="C202" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>60</v>
+      </c>
+      <c r="C203" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>210</v>
+      </c>
+      <c r="C204" s="1">
+        <v>845250</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>360</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1449000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B206" s="1">
+        <v>180</v>
+      </c>
+      <c r="C206" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C207" s="1">
+        <v>10465000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B208" s="1">
+        <v>90</v>
+      </c>
+      <c r="C208" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>180</v>
+      </c>
+      <c r="C209" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>90</v>
+      </c>
+      <c r="C210" s="1">
+        <v>356850</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>15</v>
+      </c>
+      <c r="C211" s="1">
+        <v>59475</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>840</v>
+      </c>
+      <c r="C212" s="1">
+        <v>3330600</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45</v>
+      </c>
+      <c r="C213" s="1">
+        <v>391050</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B214" s="1">
+        <v>90</v>
+      </c>
+      <c r="C214" s="1">
+        <v>782100</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B215" s="1">
+        <v>90</v>
+      </c>
+      <c r="C215" s="1">
+        <v>782100</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B216" s="1">
+        <v>377</v>
+      </c>
+      <c r="C216" s="1">
+        <v>3276130</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B217" s="1">
+        <v>28</v>
+      </c>
+      <c r="C217" s="1">
+        <v>243320</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>60</v>
+      </c>
+      <c r="C218" s="1">
+        <v>521400</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45</v>
+      </c>
+      <c r="C219" s="1">
+        <v>391050</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B220" s="1">
+        <v>28</v>
+      </c>
+      <c r="C220" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45</v>
+      </c>
+      <c r="C221" s="1">
+        <v>643500</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>195</v>
+      </c>
+      <c r="C222" s="1">
+        <v>2788500</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>30</v>
+      </c>
+      <c r="C223" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>30</v>
+      </c>
+      <c r="C224" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B225" s="1">
+        <v>15</v>
+      </c>
+      <c r="C225" s="1">
+        <v>50025</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45</v>
+      </c>
+      <c r="C226" s="1">
+        <v>150075</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B227" s="1">
+        <v>270</v>
+      </c>
+      <c r="C227" s="1">
+        <v>10395000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B228" s="1">
+        <v>75</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2887500</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B229" s="1">
+        <v>30</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B230" s="1">
+        <v>240</v>
+      </c>
+      <c r="C230" s="1">
+        <v>9240000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B231" s="1">
+        <v>60</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B232" s="1">
+        <v>937</v>
+      </c>
+      <c r="C232" s="1">
+        <v>36074500</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B233" s="1">
+        <v>210</v>
+      </c>
+      <c r="C233" s="1">
+        <v>8085000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B234" s="1">
+        <v>90</v>
+      </c>
+      <c r="C234" s="1">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B235" s="1">
+        <v>90</v>
+      </c>
+      <c r="C235" s="1">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B236" s="1">
+        <v>15</v>
+      </c>
+      <c r="C236" s="1">
+        <v>163350</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B237" s="1">
+        <v>120</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1306800</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B238" s="1">
+        <v>217</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2363130</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B239" s="1">
+        <v>45</v>
+      </c>
+      <c r="C239" s="1">
+        <v>490050</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B240" s="1">
+        <v>120</v>
+      </c>
+      <c r="C240" s="1">
+        <v>4224000</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B241" s="1">
+        <v>90</v>
+      </c>
+      <c r="C241" s="1">
+        <v>3168000</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B242" s="1">
+        <v>90</v>
+      </c>
+      <c r="C242" s="1">
+        <v>3168000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B243" s="1">
+        <v>90</v>
+      </c>
+      <c r="C243" s="1">
+        <v>3168000</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B244" s="1">
+        <v>765</v>
+      </c>
+      <c r="C244" s="1">
+        <v>26928000</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B245" s="1">
+        <v>90</v>
+      </c>
+      <c r="C245" s="1">
+        <v>3168000</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B246" s="1">
+        <v>90</v>
+      </c>
+      <c r="C246" s="1">
+        <v>3168000</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B247" s="1">
+        <v>90</v>
+      </c>
+      <c r="C247" s="1">
+        <v>3168000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B248" s="1">
+        <v>120</v>
+      </c>
+      <c r="C248" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B249" s="1">
+        <v>90</v>
+      </c>
+      <c r="C249" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B250" s="1">
+        <v>60</v>
+      </c>
+      <c r="C250" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B251" s="1">
+        <v>240</v>
+      </c>
+      <c r="C251" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B252" s="1">
+        <v>120</v>
+      </c>
+      <c r="C252" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B253" s="1">
+        <v>300</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1207500</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B254" s="1">
+        <v>30</v>
+      </c>
+      <c r="C254" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B255" s="1">
+        <v>120</v>
+      </c>
+      <c r="C255" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B256" s="1">
+        <v>1790</v>
+      </c>
+      <c r="C256" s="1">
+        <v>7204750</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B257" s="1">
+        <v>120</v>
+      </c>
+      <c r="C257" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Tehep - B (Tenofovir 300mg)</v>
+      </c>
+      <c r="B258" s="1">
+        <v>30</v>
+      </c>
+      <c r="C258" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Tehep - B (Tenofovir 300mg)</v>
+      </c>
+      <c r="B259" s="1">
+        <v>90</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1485000</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Tehep - B (Tenofovir 300mg)</v>
+      </c>
+      <c r="B260" s="1">
+        <v>210</v>
+      </c>
+      <c r="C260" s="1">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Tehep - B (Tenofovir 300mg)</v>
+      </c>
+      <c r="B261" s="1">
+        <v>675</v>
+      </c>
+      <c r="C261" s="1">
+        <v>11137500</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Tehep - B (Tenofovir 300mg)</v>
+      </c>
+      <c r="B262" s="1">
+        <v>90</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1485000</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B263" s="1">
+        <v>30</v>
+      </c>
+      <c r="C263" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1336500</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B265" s="1">
+        <v>300</v>
+      </c>
+      <c r="C265" s="1">
+        <v>8910000</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B266" s="1">
+        <v>165</v>
+      </c>
+      <c r="C266" s="1">
+        <v>4900500</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B267" s="1">
+        <v>315</v>
+      </c>
+      <c r="C267" s="1">
+        <v>9355500</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B268" s="1">
+        <v>1784</v>
+      </c>
+      <c r="C268" s="1">
+        <v>52984800</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B269" s="1">
+        <v>90</v>
+      </c>
+      <c r="C269" s="1">
+        <v>2799000</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B270" s="1">
+        <v>180</v>
+      </c>
+      <c r="C270" s="1">
+        <v>5598000</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B271" s="1">
+        <v>220</v>
+      </c>
+      <c r="C271" s="1">
+        <v>6842000</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B272" s="1">
+        <v>247</v>
+      </c>
+      <c r="C272" s="1">
+        <v>7681700</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B273" s="1">
+        <v>90</v>
+      </c>
+      <c r="C273" s="1">
+        <v>2799000</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1872</v>
+      </c>
+      <c r="C274" s="1">
+        <v>58219200</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B275" s="1">
+        <v>90</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2799000</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B276" s="1">
+        <v>90</v>
+      </c>
+      <c r="C276" s="1">
+        <v>2799000</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B277" s="1">
+        <v>30</v>
+      </c>
+      <c r="C277" s="1">
+        <v>72450</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B278" s="1">
+        <v>180</v>
+      </c>
+      <c r="C278" s="1">
+        <v>434700</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B279" s="1">
+        <v>180</v>
+      </c>
+      <c r="C279" s="1">
+        <v>434700</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B280" s="1">
+        <v>90</v>
+      </c>
+      <c r="C280" s="1">
+        <v>434700</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B281" s="1">
+        <v>462</v>
+      </c>
+      <c r="C281" s="1">
+        <v>2231460</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B282" s="1">
+        <v>3</v>
+      </c>
+      <c r="C282" s="1">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B283" s="1">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B284" s="1">
+        <v>2</v>
+      </c>
+      <c r="C284" s="1">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B285" s="1">
+        <v>2634</v>
+      </c>
+      <c r="C285" s="1">
+        <v>30712440</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B286" s="1">
+        <v>180</v>
+      </c>
+      <c r="C286" s="1">
+        <v>2098800</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B287" s="1">
+        <v>480</v>
+      </c>
+      <c r="C287" s="1">
+        <v>5596800</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B288" s="1">
+        <v>206</v>
+      </c>
+      <c r="C288" s="1">
+        <v>2401960</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B289" s="1">
+        <v>180</v>
+      </c>
+      <c r="C289" s="1">
+        <v>2098800</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B290" s="1">
+        <v>292</v>
+      </c>
+      <c r="C290" s="1">
+        <v>3404720</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B291" s="1">
+        <v>210</v>
+      </c>
+      <c r="C291" s="1">
+        <v>2448600</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B65" s="1">
-        <v>153995</v>
-      </c>
-      <c r="C65" s="1">
-        <v>NaN</v>
+      <c r="B292" s="1">
+        <v>110489</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1408178845</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C65"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C292"/>
   </ignoredErrors>
 </worksheet>
 </file>